--- a/public/excelformats/member.xlsx
+++ b/public/excelformats/member.xlsx
@@ -1,67 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gandaki Pradesh Library\website\public\excelformats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkFlow\Dilligent Dexterity\pradesh-library\website\public\excelformats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0AEF162-EB14-46CE-951C-00541E939024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B825E305-554E-4578-A2A2-6B3B01374B47}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>SN</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Address</t>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Image Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -82,17 +72,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -124,20 +109,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+  <cellStyles count="2">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -169,7 +153,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -181,7 +165,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -228,23 +212,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -280,23 +247,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,32 +398,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D950CA-9FF0-40D7-B410-E90729F12F4C}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>